--- a/Documentation/BOM/12V_PowerBoard_BOM_Rev1.xlsx
+++ b/Documentation/BOM/12V_PowerBoard_BOM_Rev1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Documents\GitHub\12Volt_Hardware\Documentation\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424322E4-ABCD-4F5A-9F8F-F41C9CE152F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F8C08B-222E-49B8-8ECF-CA8F4A4DF373}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -990,7 +990,7 @@
   <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>26</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>28</v>
@@ -1353,7 +1353,9 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>155</v>
       </c>

--- a/Documentation/BOM/12V_PowerBoard_BOM_Rev1.xlsx
+++ b/Documentation/BOM/12V_PowerBoard_BOM_Rev1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Documents\GitHub\12Volt_Hardware\Documentation\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/logandietz/Documents/GitHub/12Volt_Hardware/Documentation/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F8C08B-222E-49B8-8ECF-CA8F4A4DF373}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1114385-F2C3-214E-8D71-E8BB02CFB9A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="21300" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MRDT BOM Template.csv" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="200">
   <si>
     <t>Id</t>
   </si>
@@ -559,13 +559,88 @@
   </si>
   <si>
     <t>CAP CER 100UF 10V X5R 1206</t>
+  </si>
+  <si>
+    <t>160-1446-1-ND</t>
+  </si>
+  <si>
+    <t>LtST-C191KGKT</t>
+  </si>
+  <si>
+    <t>GreenLED 0603</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/lite-on-inc/LTST-C191KGKT/386834</t>
+  </si>
+  <si>
+    <t>.1uF 0603</t>
+  </si>
+  <si>
+    <t>1276-1005-1-ND</t>
+  </si>
+  <si>
+    <t>Dikigey</t>
+  </si>
+  <si>
+    <t>CL10B104LO8NNNC</t>
+  </si>
+  <si>
+    <t>490-10728-1-ND</t>
+  </si>
+  <si>
+    <t>GRM188R61C106KAALD</t>
+  </si>
+  <si>
+    <t>10 uF 0603</t>
+  </si>
+  <si>
+    <t>WM4908-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/molex-llc/0705530009/114983</t>
+  </si>
+  <si>
+    <t>Molex 10</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/kemet/C0603C106M8PAC7411/12701345?s=N4IgTCBcDaIMwE4EFoDCAGAbOuqCMWAsgBwAKAgqgOwAseeqAKsgHIAiIAugL5A</t>
+  </si>
+  <si>
+    <t>941-1762-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/delta-electronics/Q36SR12020NRFA/6133831?s=N4IgTCBcDaIIoGYBsBlASgRjABhwOTQDEBBEAXQF8g</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/vishay-dale/CRCW06031K20FKEAC/7924070</t>
+  </si>
+  <si>
+    <t>CRCW06031K20FKEAC</t>
+  </si>
+  <si>
+    <t>541-5225-1-ND</t>
+  </si>
+  <si>
+    <t>1.2 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Thick Film</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/rohm-semiconductor/SDR03EZPF3301/9674965</t>
+  </si>
+  <si>
+    <t>3.3 kOhms ±1% 0.3W Chip Resistor 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>511-1715-1-ND</t>
+  </si>
+  <si>
+    <t>SDR03EZPF3301</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -612,6 +687,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -634,7 +715,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -662,6 +743,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -990,26 +1075,26 @@
   <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="49.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="103" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1051,7 +1136,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1094,7 +1179,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1137,7 +1222,7 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1180,7 +1265,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1223,7 +1308,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1266,7 +1351,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1309,7 +1394,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1352,7 +1437,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1395,7 +1480,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1438,7 +1523,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1481,7 +1566,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1524,7 +1609,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1555,7 +1640,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1586,7 +1671,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1599,25 +1684,37 @@
       <c r="D15" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="5"/>
+      <c r="E15" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>107</v>
+      </c>
       <c r="I15" s="6">
         <v>4</v>
       </c>
-      <c r="J15" s="3"/>
+      <c r="J15" s="3">
+        <v>0.26</v>
+      </c>
       <c r="K15" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="4"/>
+        <v>1.04</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>178</v>
+      </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1660,7 +1757,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1691,7 +1788,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1704,17 +1801,27 @@
       <c r="D18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="I18" s="6">
         <v>10</v>
       </c>
-      <c r="J18" s="3"/>
+      <c r="J18" s="3">
+        <v>0.1</v>
+      </c>
       <c r="K18" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="2"/>
@@ -1722,7 +1829,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1753,7 +1860,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1766,15 +1873,33 @@
       <c r="D20" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E20" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="I20" s="6">
         <v>10</v>
       </c>
+      <c r="J20" s="3">
+        <v>0.46</v>
+      </c>
       <c r="K20" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4.6000000000000005</v>
+      </c>
+      <c r="L20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1795,7 +1920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1816,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1837,7 +1962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1858,7 +1983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1880,7 +2005,7 @@
       </c>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1902,7 +2027,7 @@
       </c>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1924,7 +2049,7 @@
       </c>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1946,7 +2071,7 @@
       </c>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1968,7 +2093,7 @@
       </c>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1990,7 +2115,7 @@
       </c>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2012,7 +2137,7 @@
       </c>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2052,7 +2177,7 @@
       </c>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2092,7 +2217,7 @@
       </c>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2132,7 +2257,7 @@
       </c>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2145,16 +2270,34 @@
       <c r="D35" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="E35" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G35">
+        <v>705530009</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="I35" s="6">
         <v>1</v>
       </c>
+      <c r="J35">
+        <v>2.82</v>
+      </c>
       <c r="K35" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.82</v>
+      </c>
+      <c r="L35" t="s">
+        <v>187</v>
       </c>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2167,16 +2310,34 @@
       <c r="D36" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E36" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="I36" s="6">
         <v>2</v>
       </c>
+      <c r="J36">
+        <v>0.46</v>
+      </c>
       <c r="K36" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.92</v>
+      </c>
+      <c r="L36" t="s">
+        <v>189</v>
       </c>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2189,16 +2350,34 @@
       <c r="D37" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="E37" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>107</v>
+      </c>
       <c r="I37" s="6">
         <v>1</v>
       </c>
+      <c r="J37">
+        <v>0.1</v>
+      </c>
       <c r="K37" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1</v>
+      </c>
+      <c r="L37" t="s">
+        <v>192</v>
       </c>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2211,16 +2390,34 @@
       <c r="D38" s="1" t="s">
         <v>100</v>
       </c>
+      <c r="E38" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>107</v>
+      </c>
       <c r="I38" s="6">
         <v>1</v>
       </c>
+      <c r="J38">
+        <v>0.13</v>
+      </c>
       <c r="K38" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.13</v>
+      </c>
+      <c r="L38" t="s">
+        <v>196</v>
       </c>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2233,16 +2430,34 @@
       <c r="D39" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="E39" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>107</v>
+      </c>
       <c r="I39" s="6">
         <v>1</v>
       </c>
+      <c r="J39">
+        <v>0.26</v>
+      </c>
       <c r="K39" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.26</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2255,16 +2470,34 @@
       <c r="D40" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="E40" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>107</v>
+      </c>
       <c r="I40" s="6">
         <v>1</v>
       </c>
+      <c r="J40">
+        <v>0.26</v>
+      </c>
       <c r="K40" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.26</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2286,7 +2519,7 @@
       </c>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2308,7 +2541,7 @@
       </c>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2321,12 +2554,30 @@
       <c r="D43" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="E43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="I43" s="6">
         <v>1</v>
       </c>
+      <c r="J43">
+        <v>62.64</v>
+      </c>
       <c r="K43" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>62.64</v>
+      </c>
+      <c r="L43" t="s">
+        <v>191</v>
       </c>
       <c r="O43" s="2"/>
     </row>

--- a/Documentation/BOM/12V_PowerBoard_BOM_Rev1.xlsx
+++ b/Documentation/BOM/12V_PowerBoard_BOM_Rev1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/logandietz/Documents/GitHub/12Volt_Hardware/Documentation/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1114385-F2C3-214E-8D71-E8BB02CFB9A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5355AE3C-5598-334A-8CE3-6851291A1676}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="21300" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="219">
   <si>
     <t>Id</t>
   </si>
@@ -168,48 +168,9 @@
     <t>CP_Radial_D5.0mm_P2.00mm</t>
   </si>
   <si>
-    <t>Drive</t>
-  </si>
-  <si>
-    <t>Anderson_2_Vertical_Sidy_by_Side</t>
-  </si>
-  <si>
-    <t>Conn12</t>
-  </si>
-  <si>
-    <t>Anderson_3_Vertical_Side_by_Side</t>
-  </si>
-  <si>
-    <t>Conn11</t>
-  </si>
-  <si>
-    <t>Conn10</t>
-  </si>
-  <si>
-    <t>Conn9</t>
-  </si>
-  <si>
-    <t>Extra 2</t>
-  </si>
-  <si>
-    <t>Extra 1</t>
-  </si>
-  <si>
-    <t>Nav Board</t>
-  </si>
-  <si>
-    <t>Cameras</t>
-  </si>
-  <si>
-    <t>Extra 3</t>
-  </si>
-  <si>
     <t>Conn3</t>
   </si>
   <si>
-    <t>Anderson_2_Horizontal_Stacked</t>
-  </si>
-  <si>
     <t>U9</t>
   </si>
   <si>
@@ -294,36 +255,6 @@
     <t>1000 uF</t>
   </si>
   <si>
-    <t>Extra</t>
-  </si>
-  <si>
-    <t>Multimedia</t>
-  </si>
-  <si>
-    <t>AuxMount</t>
-  </si>
-  <si>
-    <t>Gimbal</t>
-  </si>
-  <si>
-    <t>ExtraL2</t>
-  </si>
-  <si>
-    <t>ExtraL1</t>
-  </si>
-  <si>
-    <t>NavBoard</t>
-  </si>
-  <si>
-    <t>Camera</t>
-  </si>
-  <si>
-    <t>ExtraL3</t>
-  </si>
-  <si>
-    <t>PackVoltage</t>
-  </si>
-  <si>
     <t>IRLML2060</t>
   </si>
   <si>
@@ -348,9 +279,6 @@
     <t>330uF</t>
   </si>
   <si>
-    <t>FDS66900AS</t>
-  </si>
-  <si>
     <t>Manf Part Num</t>
   </si>
   <si>
@@ -634,13 +562,142 @@
   </si>
   <si>
     <t>SDR03EZPF3301</t>
+  </si>
+  <si>
+    <t>20A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuse Block 30A 500V 1 Circuit Blade </t>
+  </si>
+  <si>
+    <t>36-3557-2-ND</t>
+  </si>
+  <si>
+    <t>3557-2</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/keystone-electronics/3557-2/2137305</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/samsung-electro-mechanics/CL10B104KO8NNNC/3889091</t>
+  </si>
+  <si>
+    <t>PCB Vertical Contact</t>
+  </si>
+  <si>
+    <t>1335G1</t>
+  </si>
+  <si>
+    <t>Powerwerx</t>
+  </si>
+  <si>
+    <t>https://powerwerx.com/anderson-1335g1-printed-circuit-board-vertical</t>
+  </si>
+  <si>
+    <t>45 Amp Vertical Contact</t>
+  </si>
+  <si>
+    <t>45 Amp Horizontal Bottom</t>
+  </si>
+  <si>
+    <t>45 Amp horizontal Top</t>
+  </si>
+  <si>
+    <t>PCB Horizontal Bottom Contact</t>
+  </si>
+  <si>
+    <t>1336G1</t>
+  </si>
+  <si>
+    <t>1337G1</t>
+  </si>
+  <si>
+    <t>Black PowerPole Casings</t>
+  </si>
+  <si>
+    <t>Red PowerPole Casings</t>
+  </si>
+  <si>
+    <t>Purple PowerPole Casing</t>
+  </si>
+  <si>
+    <t>PCB Horizontal Top Contact</t>
+  </si>
+  <si>
+    <t>Blue PowerPole Casings</t>
+  </si>
+  <si>
+    <t>Black Casing</t>
+  </si>
+  <si>
+    <t>Red Casing</t>
+  </si>
+  <si>
+    <t>Purple casing</t>
+  </si>
+  <si>
+    <t>Blue casing</t>
+  </si>
+  <si>
+    <t>1327G6</t>
+  </si>
+  <si>
+    <t>1327G23</t>
+  </si>
+  <si>
+    <t>1327G8</t>
+  </si>
+  <si>
+    <t>https://powerwerx.com/anderson-powerpole-colored-housings</t>
+  </si>
+  <si>
+    <t>Pack</t>
+  </si>
+  <si>
+    <t>Conn4, Conn5,Conn6,Con7,Conn8,Conn9,Connn10,Conn11,Conn12,Conn15</t>
+  </si>
+  <si>
+    <t>Drive,Camera,NavBoard,Extra,Gimbal,AuxMount,Multimedia,Extra</t>
+  </si>
+  <si>
+    <t>Gimbal,Auxmount,Multimedia,Extra</t>
+  </si>
+  <si>
+    <t>Conn9,Conn10,Conn11,Conn12,Conn15,Conn5,Conn6,Conn7,Conn8,Conn4</t>
+  </si>
+  <si>
+    <t>ATC_Fuse</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/littelfuse-inc/0287005-PXCN/2519811?s=N4IgTCBcDaIGIBYCMBOA7AWgHIBEQF0BfIA</t>
+  </si>
+  <si>
+    <t>0287005.PXCN</t>
+  </si>
+  <si>
+    <t>F4197-ND</t>
+  </si>
+  <si>
+    <t>5A AC 32V DC Fuse Automotive Holder Blade, ATO/ATC</t>
+  </si>
+  <si>
+    <t>CSD18531Q5A</t>
+  </si>
+  <si>
+    <t>N-Channel 60V 19A (Ta), 100A (Tc) 3.1W (Ta), 156W (Tc) Surface Mount 8-VSONP (5x6)</t>
+  </si>
+  <si>
+    <t>296-30573-1-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/texas-instruments/CSD18531Q5A/3478069</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -684,12 +741,6 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -746,7 +797,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1072,10 +1125,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P43"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1105,7 +1158,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1114,7 +1167,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -1147,19 +1200,19 @@
         <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="G2" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="I2" s="6">
         <v>3</v>
@@ -1168,11 +1221,11 @@
         <v>0.63</v>
       </c>
       <c r="K2" s="3">
-        <f t="shared" ref="K2:K43" si="0">I2*J2</f>
+        <f t="shared" ref="K2:K39" si="0">I2*J2</f>
         <v>1.8900000000000001</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1190,19 +1243,19 @@
         <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="G3" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="I3" s="6">
         <v>1</v>
@@ -1215,7 +1268,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1233,19 +1286,19 @@
         <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="I4" s="6">
         <v>2</v>
@@ -1258,7 +1311,7 @@
         <v>1.18</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1276,19 +1329,19 @@
         <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="I5" s="6">
         <v>5</v>
@@ -1301,7 +1354,7 @@
         <v>14.450000000000001</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1319,19 +1372,19 @@
         <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="I6" s="6">
         <v>2</v>
@@ -1344,7 +1397,7 @@
         <v>0.9</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1362,19 +1415,19 @@
         <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="I7" s="6">
         <v>2</v>
@@ -1387,7 +1440,7 @@
         <v>5.54</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1405,19 +1458,19 @@
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="I8" s="6">
         <v>13</v>
@@ -1430,7 +1483,7 @@
         <v>1.3</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1442,25 +1495,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="D9" s="1">
         <v>0.01</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="I9" s="6">
         <v>3</v>
@@ -1473,7 +1526,7 @@
         <v>1.71</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1485,7 +1538,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>13</v>
@@ -1494,16 +1547,16 @@
         <v>0.01</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="I10" s="6">
         <v>7</v>
@@ -1516,7 +1569,7 @@
         <v>4.41</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1534,19 +1587,19 @@
         <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="I11" s="6">
         <v>10</v>
@@ -1559,7 +1612,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1574,22 +1627,22 @@
         <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="I12" s="6">
         <v>2</v>
@@ -1602,7 +1655,7 @@
         <v>2.7</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1620,7 +1673,7 @@
         <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1650,22 +1703,32 @@
       <c r="C14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="1">
-        <v>20</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="D14" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="I14" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L14" s="4"/>
+      <c r="L14" s="4" t="s">
+        <v>180</v>
+      </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -1682,19 +1745,19 @@
         <v>25</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="I15" s="6">
         <v>4</v>
@@ -1707,7 +1770,7 @@
         <v>1.04</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1725,19 +1788,19 @@
         <v>37</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="I16" s="6">
         <v>10</v>
@@ -1750,7 +1813,7 @@
         <v>57.400000000000006</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -1764,25 +1827,37 @@
       <c r="B17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>34</v>
+      <c r="C17" s="7" t="s">
+        <v>210</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
       <c r="I17" s="6">
         <v>3</v>
       </c>
-      <c r="J17" s="3"/>
+      <c r="J17" s="3">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="K17" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="4"/>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>211</v>
+      </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -1799,19 +1874,19 @@
         <v>10</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="I18" s="6">
         <v>10</v>
@@ -1823,7 +1898,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L18" s="4"/>
+      <c r="L18" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -1840,7 +1917,7 @@
         <v>41</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1874,16 +1951,16 @@
         <v>11</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="I20" s="6">
         <v>10</v>
@@ -1896,112 +1973,192 @@
         <v>4.6000000000000005</v>
       </c>
       <c r="L20" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>44</v>
+      <c r="B21" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="I21" s="6">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="J21" s="14">
+        <v>0.59</v>
       </c>
       <c r="K21" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14.16</v>
+      </c>
+      <c r="L21" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>86</v>
+      <c r="B22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="I22" s="6">
         <v>1</v>
       </c>
+      <c r="J22" s="14">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="K22" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L22" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>87</v>
+      <c r="B23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="I23" s="6">
         <v>1</v>
       </c>
+      <c r="J23" s="14">
+        <v>0.56000000000000005</v>
+      </c>
       <c r="K23" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L23" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>88</v>
+      <c r="B24" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="I24" s="6">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="J24" s="14">
+        <v>0.37</v>
       </c>
       <c r="K24" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.07</v>
+      </c>
+      <c r="L24" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>89</v>
+      <c r="B25" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F25">
+        <v>1327</v>
+      </c>
+      <c r="G25">
+        <v>1327</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="I25" s="6">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="J25" s="14">
+        <v>0.37</v>
       </c>
       <c r="K25" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.7</v>
+      </c>
+      <c r="L25" t="s">
+        <v>204</v>
       </c>
       <c r="O25" s="2"/>
     </row>
@@ -2009,21 +2166,37 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>90</v>
+      <c r="B26" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="I26" s="6">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="J26" s="14">
+        <v>0.39</v>
       </c>
       <c r="K26" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.56</v>
+      </c>
+      <c r="L26" t="s">
+        <v>204</v>
       </c>
       <c r="O26" s="2"/>
     </row>
@@ -2031,555 +2204,501 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>91</v>
+      <c r="B27" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="I27" s="6">
         <v>1</v>
       </c>
+      <c r="J27" s="14">
+        <v>0.39</v>
+      </c>
       <c r="K27" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.39</v>
+      </c>
+      <c r="L27" t="s">
+        <v>204</v>
       </c>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28" s="8" t="s">
         <v>92</v>
       </c>
       <c r="I28" s="6">
         <v>1</v>
       </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
       <c r="K28" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L28" t="s">
+        <v>109</v>
       </c>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>93</v>
+        <v>73</v>
+      </c>
+      <c r="E29" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" t="s">
+        <v>84</v>
+      </c>
+      <c r="H29" t="s">
+        <v>83</v>
       </c>
       <c r="I29" s="6">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="J29">
+        <v>0.35</v>
       </c>
       <c r="K29" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.4499999999999997</v>
+      </c>
+      <c r="L29" t="s">
+        <v>82</v>
       </c>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>94</v>
+        <v>74</v>
+      </c>
+      <c r="E30" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" t="s">
+        <v>114</v>
+      </c>
+      <c r="G30" t="s">
+        <v>113</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="I30" s="6">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="J30">
+        <v>0.36</v>
       </c>
       <c r="K30" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.2399999999999998</v>
+      </c>
+      <c r="L30" t="s">
+        <v>112</v>
       </c>
       <c r="O30" s="2"/>
     </row>
     <row r="31" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>95</v>
+        <v>75</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G31">
+        <v>705530009</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="I31" s="6">
         <v>1</v>
       </c>
+      <c r="J31">
+        <v>2.82</v>
+      </c>
       <c r="K31" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.82</v>
+      </c>
+      <c r="L31" t="s">
+        <v>163</v>
       </c>
       <c r="O31" s="2"/>
     </row>
     <row r="32" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E32" t="s">
-        <v>135</v>
-      </c>
-      <c r="F32" t="s">
-        <v>131</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>116</v>
+        <v>11</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="I32" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>0.46</v>
       </c>
       <c r="K32" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="L32" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="O32" s="2"/>
     </row>
     <row r="33" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F33" t="s">
-        <v>109</v>
-      </c>
-      <c r="G33" t="s">
-        <v>108</v>
-      </c>
-      <c r="H33" t="s">
-        <v>107</v>
+        <v>76</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="I33" s="6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J33">
-        <v>0.35</v>
+        <v>0.1</v>
       </c>
       <c r="K33" s="3">
         <f t="shared" si="0"/>
-        <v>2.4499999999999997</v>
+        <v>0.1</v>
       </c>
       <c r="L33" t="s">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="O33" s="2"/>
     </row>
     <row r="34" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>143</v>
+        <v>51</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E34" t="s">
-        <v>97</v>
-      </c>
-      <c r="F34" t="s">
-        <v>138</v>
-      </c>
-      <c r="G34" t="s">
-        <v>137</v>
+        <v>77</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="I34" s="6">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>0.36</v>
+        <v>0.13</v>
       </c>
       <c r="K34" s="3">
         <f t="shared" si="0"/>
-        <v>3.2399999999999998</v>
+        <v>0.13</v>
       </c>
       <c r="L34" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="O34" s="2"/>
     </row>
     <row r="35" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G35">
-        <v>705530009</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>107</v>
+        <v>151</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="I35" s="6">
         <v>1</v>
       </c>
       <c r="J35">
-        <v>2.82</v>
+        <v>0.26</v>
       </c>
       <c r="K35" s="3">
         <f t="shared" si="0"/>
-        <v>2.82</v>
-      </c>
-      <c r="L35" t="s">
-        <v>187</v>
+        <v>0.26</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="O35" s="2"/>
     </row>
     <row r="36" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>107</v>
+        <v>152</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="I36" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36">
-        <v>0.46</v>
+        <v>0.26</v>
       </c>
       <c r="K36" s="3">
         <f t="shared" si="0"/>
-        <v>0.92</v>
-      </c>
-      <c r="L36" t="s">
-        <v>189</v>
+        <v>0.26</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="O36" s="2"/>
     </row>
     <row r="37" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="I37" s="6">
-        <v>1</v>
-      </c>
-      <c r="J37">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="K37" s="3">
         <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="L37" t="s">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>197</v>
+        <v>57</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>216</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>107</v>
+        <v>215</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="I38" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J38">
-        <v>0.13</v>
+        <v>1.65</v>
       </c>
       <c r="K38" s="3">
         <f t="shared" si="0"/>
-        <v>0.13</v>
+        <v>4.9499999999999993</v>
       </c>
       <c r="L38" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="O38" s="2"/>
     </row>
     <row r="39" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>177</v>
+        <v>59</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>107</v>
+        <v>59</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="I39" s="6">
         <v>1</v>
       </c>
       <c r="J39">
-        <v>0.26</v>
+        <v>62.64</v>
       </c>
       <c r="K39" s="3">
         <f t="shared" si="0"/>
-        <v>0.26</v>
-      </c>
-      <c r="L39" s="4" t="s">
-        <v>178</v>
+        <v>62.64</v>
+      </c>
+      <c r="L39" t="s">
+        <v>167</v>
       </c>
       <c r="O39" s="2"/>
-    </row>
-    <row r="40" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="I40" s="6">
-        <v>1</v>
-      </c>
-      <c r="J40">
-        <v>0.26</v>
-      </c>
-      <c r="K40" s="3">
-        <f t="shared" si="0"/>
-        <v>0.26</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="O40" s="2"/>
-    </row>
-    <row r="41" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I41" s="6">
-        <v>2</v>
-      </c>
-      <c r="K41" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O41" s="2"/>
-    </row>
-    <row r="42" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I42" s="6">
-        <v>3</v>
-      </c>
-      <c r="K42" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O42" s="2"/>
-    </row>
-    <row r="43" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I43" s="6">
-        <v>1</v>
-      </c>
-      <c r="J43">
-        <v>62.64</v>
-      </c>
-      <c r="K43" s="3">
-        <f t="shared" si="0"/>
-        <v>62.64</v>
-      </c>
-      <c r="L43" t="s">
-        <v>191</v>
-      </c>
-      <c r="O43" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
